--- a/00.Document/11.프로덕션/03.리소스/01.사운드/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
+++ b/00.Document/11.프로덕션/03.리소스/01.사운드/(PD)사운드리스트통합정리문서_180424_지현우ver1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6kigs_18\Desktop\3DProject\00.Document\02.프리프로덕션\03.리소스파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\6kigs_18\Desktop\3DProject\00.Document\11.프로덕션\03.리소스\01.사운드\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0E254-C736-45F7-A6CF-9699A5A76CB9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CC4A65-3873-47FA-8144-ADC1CD314B97}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시작부터 종료시 까지 유지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>볼륨 우선도는 1~5까지로 분류한다 -&gt; 높을수록 중요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,59 +151,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>제작자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저작권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM, SE사운드 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heartbreaking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Come Play with me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kevin MacLeod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활용 구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 엔딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오프닝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mwirth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 가스 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gas wird angezündet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인, 엔딩 BGM, 가스 SE 내용 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사운드컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 타이틀 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔디 밟는 SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에 들어갈 오브젝트 획득시 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷는 SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼에서 메인 씬 돌입 후 복도 전등이 차례대로 꺼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지 BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시체가 흔들거리는 SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 사용시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐비닛 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문(철)이 닫히면서 내는 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액자 떨어지는 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 귀신 사운드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1152kbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1411kbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C1GasSound_SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPBGM _BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 메인 타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제작자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재생 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저작권</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGM, SE사운드 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곡명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heartbreaking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Come Play with me</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin MacLeod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>활용 구간</t>
+    <t>Wav</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheMovieMacher</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -215,51 +315,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Shadowmaker-cellar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StageBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128kbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 엔딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 오프닝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mwirth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체 가스 사운드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gas wird angezündet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENDBGM_BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192kbs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인, 엔딩 BGM, 가스 SE 내용 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지현우</t>
+    <t>Itempickup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 열쇠 사용시 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리에서 염산 사용시 발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyopen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,12 +632,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,23 +668,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -875,18 +966,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -912,14 +1003,14 @@
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="28">
+      <c r="B8" s="20">
         <v>43228</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -1004,26 +1095,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:V47"/>
+  <dimension ref="B1:W48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.75" style="2"/>
     <col min="3" max="3" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="2"/>
+    <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -1032,8 +1124,9 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
-    </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="M1" s="7"/>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C2" s="23"/>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -1043,9 +1136,10 @@
       <c r="I2" s="23"/>
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L2" s="23"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -1055,9 +1149,10 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L3" s="23"/>
+      <c r="M3" s="13"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
@@ -1067,35 +1162,37 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="6" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="13"/>
+    </row>
+    <row r="6" spans="2:23" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="M6" s="19" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="N6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
@@ -1103,329 +1200,399 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="H7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="N7" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
-        <v>101</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="5">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="26">
-        <v>9.0972222222222218E-2</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="21" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="9"/>
+      <c r="N8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="26">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="M9" s="21" t="s">
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="9"/>
+      <c r="N9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="8"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="9"/>
-      <c r="M10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K10" s="5"/>
+      <c r="L10" s="9"/>
+      <c r="N10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="9"/>
-      <c r="M11" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="8"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="G13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="18">
         <v>2.0833333333333333E-3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="5">
         <v>0</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="L15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="18">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="I16" s="5">
         <v>0</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="5"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="5"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="8"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="8"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="G21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="18">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="8"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="5"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="8"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1435,9 +1602,10 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="5"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="8"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1447,9 +1615,10 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="5"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="8"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1459,9 +1628,10 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="5"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="8"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1471,9 +1641,10 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="5"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="8"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1483,9 +1654,10 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="5"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="8"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1495,9 +1667,10 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="5"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="8"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1507,9 +1680,10 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="5"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="8"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1519,9 +1693,10 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="5"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="8"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1531,9 +1706,10 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="5"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="8"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1543,9 +1719,10 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="5"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="8"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1555,9 +1732,10 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="5"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1567,9 +1745,10 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="5"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1579,9 +1758,10 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="5"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1591,9 +1771,10 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="5"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1603,9 +1784,10 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="5"/>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1615,9 +1797,10 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="5"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1627,9 +1810,10 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="5"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1639,9 +1823,10 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="5"/>
+      <c r="L40" s="9"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="8"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1651,9 +1836,10 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="5"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="8"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1663,9 +1849,10 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="5"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" s="8"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1675,9 +1862,10 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="5"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B44" s="8"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1687,9 +1875,10 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="5"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" s="8"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1699,9 +1888,10 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="5"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" s="8"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1711,32 +1901,47 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="12"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="M10:V10"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="M6:V6"/>
-    <mergeCell ref="M7:V7"/>
-    <mergeCell ref="M8:V8"/>
-    <mergeCell ref="M9:V9"/>
-    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="N10:W10"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="N6:W6"/>
+    <mergeCell ref="N7:W7"/>
+    <mergeCell ref="N8:W8"/>
+    <mergeCell ref="N9:W9"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1755,12 +1960,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1810,12 +2015,12 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -1856,105 +2061,122 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="C3:H7"/>
+  <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="19">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="27">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="19">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
-      </c>
-      <c r="E6" s="27">
-        <v>9.0972222222222218E-2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="27">
+        <v>44</v>
+      </c>
+      <c r="E7" s="19">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
